--- a/branches/intro-page/ValueSet-case-reporting-questionnaire_case-reporting-questionnaire.xlsx
+++ b/branches/intro-page/ValueSet-case-reporting-questionnaire_case-reporting-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/CodeSystem/cs-hiv-risk-behavior</t>
+    <t>http://openhie.org/fhir/ImplementationGuide/openhie.fhir.casereporting/CodeSystem/cs-hiv-risk-behavior</t>
   </si>
 </sst>
 </file>
